--- a/data/trans_orig/Q64C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q64C-Provincia-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de horas que trabajan a la semana</t>
+          <t>Número medio de horas que trabaja a la semana</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>45,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38,73</t>
+          <t>38,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>37,79</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>37,62</t>
+          <t>37,61</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>42,17</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,8; 48,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,38; 39,6</t>
+          <t>37,22; 39,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,48; 41,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,8; 38,41</t>
+          <t>36,77; 38,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,25; 44,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>37,48; 38,82</t>
+          <t>37,43; 38,84</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,9</t>
+          <t>40,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,74</t>
+          <t>35,68</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>38,71</t>
+          <t>38,74</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39,86; 42,1</t>
+          <t>39,79; 42,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,29; 37,15</t>
+          <t>34,24; 37,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>37,78; 39,6</t>
+          <t>37,83; 39,67</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>41,13</t>
+          <t>41,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,41</t>
+          <t>36,42</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>38,96</t>
+          <t>39,0</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,18; 42,91</t>
+          <t>39,09; 42,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,86; 37,6</t>
+          <t>34,85; 37,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>37,81; 40,18</t>
+          <t>37,83; 40,22</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42,89</t>
+          <t>40,81</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40,32</t>
+          <t>40,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,55</t>
+          <t>31,72</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,37</t>
+          <t>30,85</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39,45</t>
+          <t>37,04</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>36,64</t>
+          <t>34,43</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,4; 44,41</t>
+          <t>39,17; 42,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38,38; 42,7</t>
+          <t>38,23; 42,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,62; 36,76</t>
+          <t>29,29; 33,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,69; 35,29</t>
+          <t>23,63; 36,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>38,22; 40,68</t>
+          <t>35,63; 38,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>33,93; 38,27</t>
+          <t>27,77; 38,18</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>40,51</t>
+          <t>40,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>39,86</t>
+          <t>39,88</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>40,18</t>
+          <t>40,21</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,7; 41,24</t>
+          <t>39,69; 41,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39,14; 40,35</t>
+          <t>39,24; 40,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,65; 40,69</t>
+          <t>39,69; 40,71</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41,12</t>
+          <t>41,11</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>36,54</t>
+          <t>36,57</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>39,28</t>
+          <t>39,33</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>40,04; 42,06</t>
+          <t>40,03; 42,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>34,89; 37,8</t>
+          <t>34,96; 37,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>38,32; 40,13</t>
+          <t>38,41; 40,19</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,88</t>
+          <t>38,86</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>33,96</t>
+          <t>33,93</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>36,45</t>
+          <t>36,5</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>37,78; 39,72</t>
+          <t>37,72; 39,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,79; 35,01</t>
+          <t>32,75; 34,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>35,65; 37,18</t>
+          <t>35,67; 37,22</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>35,74</t>
+          <t>26,84</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>34,27</t>
+          <t>34,31</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>35,16</t>
+          <t>29,09</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>27,18; 39,19</t>
+          <t>14,92; 39,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,41; 35,41</t>
+          <t>32,58; 35,42</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>29,48; 37,25</t>
+          <t>17,85; 37,27</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>38,84</t>
+          <t>35,7</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,27 +1811,27 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
+          <t>34,87</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>39,74</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>39,08</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>37,52</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
           <t>35,35</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>39,74</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>39,08</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>37,52</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>37,27</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>35,21; 39,87</t>
+          <t>25,15; 39,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>34,59; 35,87</t>
+          <t>32,48; 35,82</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>35,46; 37,9</t>
+          <t>29,1; 37,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q64C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q64C-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>40,29; 43,26</t>
+          <t>40,45; 43,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,8; 48,05</t>
+          <t>42,98; 47,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,74; 44,29</t>
+          <t>39,59; 44,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,22; 39,57</t>
+          <t>37,35; 39,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,85; 41,03</t>
+          <t>36,96; 40,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,48; 41,15</t>
+          <t>34,74; 40,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,72; 40,06</t>
+          <t>34,34; 39,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,77; 38,38</t>
+          <t>36,78; 38,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,56; 42,02</t>
+          <t>39,54; 41,93</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>40,25; 44,26</t>
+          <t>40,19; 44,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,3; 41,86</t>
+          <t>38,18; 41,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>37,43; 38,84</t>
+          <t>37,41; 38,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,81; 41,71</t>
+          <t>38,93; 41,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>37,91; 41,05</t>
+          <t>37,86; 40,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,68; 39,84</t>
+          <t>36,57; 39,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>39,79; 42,04</t>
+          <t>39,71; 41,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,43; 37,16</t>
+          <t>32,66; 37,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,13; 37,63</t>
+          <t>32,85; 37,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,37; 37,46</t>
+          <t>32,79; 37,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,24; 37,11</t>
+          <t>34,23; 37,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,2; 39,78</t>
+          <t>37,03; 39,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36,53; 39,17</t>
+          <t>36,4; 39,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35,75; 38,48</t>
+          <t>35,62; 38,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>37,83; 39,67</t>
+          <t>37,79; 39,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,34; 43,81</t>
+          <t>41,42; 43,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,13; 43,51</t>
+          <t>41,13; 43,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,37; 39,08</t>
+          <t>36,45; 39,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>39,09; 42,87</t>
+          <t>39,21; 42,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>34,36; 37,93</t>
+          <t>34,43; 38,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,67; 37,13</t>
+          <t>32,67; 37,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,08; 36,28</t>
+          <t>32,07; 36,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,85; 37,6</t>
+          <t>34,89; 37,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>39,3; 41,36</t>
+          <t>39,15; 41,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>38,39; 40,89</t>
+          <t>38,43; 40,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35,09; 37,56</t>
+          <t>35,26; 37,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>37,83; 40,22</t>
+          <t>37,81; 40,13</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,74; 41,99</t>
+          <t>39,73; 42,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,17; 42,65</t>
+          <t>39,08; 42,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,4; 44,4</t>
+          <t>39,78; 44,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>38,23; 42,58</t>
+          <t>38,24; 42,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,27; 39,0</t>
+          <t>35,1; 38,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,29; 33,94</t>
+          <t>29,16; 33,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,3; 31,21</t>
+          <t>25,21; 31,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,63; 36,09</t>
+          <t>24,42; 35,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,3; 40,47</t>
+          <t>38,49; 40,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,63; 38,53</t>
+          <t>35,58; 38,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,04; 38,11</t>
+          <t>33,96; 38,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>27,77; 38,18</t>
+          <t>27,67; 38,06</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,15; 43,36</t>
+          <t>40,28; 43,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,02; 41,87</t>
+          <t>38,12; 42,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,34; 43,18</t>
+          <t>39,46; 42,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,69; 41,25</t>
+          <t>39,68; 41,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,55; 39,43</t>
+          <t>34,37; 39,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,96; 36,98</t>
+          <t>31,42; 37,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,72; 42,74</t>
+          <t>36,68; 42,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39,24; 40,39</t>
+          <t>39,28; 40,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>39,06; 41,78</t>
+          <t>39,04; 41,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>35,95; 39,4</t>
+          <t>36,11; 39,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>38,85; 42,2</t>
+          <t>38,86; 42,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,69; 40,71</t>
+          <t>39,68; 40,75</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40,93; 43,69</t>
+          <t>40,79; 43,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40,76; 44,96</t>
+          <t>40,83; 45,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>41,3; 44,53</t>
+          <t>41,5; 44,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>40,03; 42,05</t>
+          <t>40,12; 42,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>36,54; 42,03</t>
+          <t>36,27; 41,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,87; 37,82</t>
+          <t>31,37; 38,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,9; 41,81</t>
+          <t>37,81; 41,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>34,96; 37,82</t>
+          <t>34,76; 37,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>39,8; 42,3</t>
+          <t>39,85; 42,38</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>38,16; 41,87</t>
+          <t>38,24; 41,92</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>40,36; 42,83</t>
+          <t>40,35; 42,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>38,41; 40,19</t>
+          <t>38,38; 40,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>38,54; 41,29</t>
+          <t>38,59; 41,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>40,21; 42,44</t>
+          <t>40,27; 42,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,97; 38,64</t>
+          <t>35,93; 38,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>37,72; 39,7</t>
+          <t>37,73; 39,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,2; 39,63</t>
+          <t>35,39; 39,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,87; 39,99</t>
+          <t>36,87; 39,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,12; 34,01</t>
+          <t>31,07; 33,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,75; 34,98</t>
+          <t>32,82; 34,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>37,97; 40,15</t>
+          <t>37,88; 40,26</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>39,3; 41,04</t>
+          <t>39,3; 41,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>34,21; 36,2</t>
+          <t>34,28; 36,25</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>35,67; 37,22</t>
+          <t>35,75; 37,24</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>40,3; 42,24</t>
+          <t>40,28; 42,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>39,34; 40,95</t>
+          <t>39,4; 41,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,43; 40,37</t>
+          <t>38,32; 40,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,92; 39,21</t>
+          <t>14,97; 39,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>36,04; 38,94</t>
+          <t>36,04; 38,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,84; 37,44</t>
+          <t>34,82; 37,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>35,1; 37,87</t>
+          <t>35,14; 37,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,58; 35,42</t>
+          <t>32,59; 35,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39,24; 40,86</t>
+          <t>39,24; 40,82</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>37,67; 39,22</t>
+          <t>37,76; 39,25</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>37,38; 38,93</t>
+          <t>37,26; 38,97</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,85; 37,27</t>
+          <t>17,87; 37,3</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>40,67; 41,6</t>
+          <t>40,69; 41,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>40,77; 41,83</t>
+          <t>40,71; 41,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>38,87; 40,08</t>
+          <t>38,84; 40,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25,15; 39,84</t>
+          <t>25,93; 39,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>36,34; 37,94</t>
+          <t>36,34; 37,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>35,09; 36,67</t>
+          <t>35,07; 36,69</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,11; 35,66</t>
+          <t>34,16; 35,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>32,48; 35,82</t>
+          <t>32,49; 35,82</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>39,34; 40,18</t>
+          <t>39,36; 40,13</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>38,6; 39,51</t>
+          <t>38,67; 39,51</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>37,05; 38,01</t>
+          <t>36,99; 37,96</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>29,1; 37,82</t>
+          <t>28,16; 37,84</t>
         </is>
       </c>
     </row>
